--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>clust</t>
   </si>
@@ -98,6 +98,12 @@
   <si>
     <t>Мин</t>
   </si>
+  <si>
+    <t>worst case</t>
+  </si>
+  <si>
+    <t>abs (worst case - real)</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,11 +165,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,6 +190,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13278,15 +13301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
+      <xdr:colOff>497061</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>51227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>326652</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>26054</xdr:rowOff>
+      <xdr:colOff>285830</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>189340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13659,23 +13682,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13727,8 +13755,14 @@
       <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -13780,8 +13814,16 @@
       <c r="Q3" s="2">
         <v>1219</v>
       </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R6" si="0">(C3/C$8)*B$8</f>
+        <v>-192.3633601576627</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
+        <v>103.3633601576628</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -13833,8 +13875,16 @@
       <c r="Q4" s="2">
         <v>1738.99999999999</v>
       </c>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>-230.08310067334699</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>69.083100673347985</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -13886,8 +13936,16 @@
       <c r="Q5" s="2">
         <v>3548.99999999999</v>
       </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>-426.48382328789921</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>253.48382328790021</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -13939,8 +13997,16 @@
       <c r="Q6" s="2">
         <v>1038.99999999999</v>
       </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>-137.00426999507337</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0042699950743668</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -13992,8 +14058,16 @@
       <c r="Q7" s="2">
         <v>2009.5</v>
       </c>
+      <c r="R7" s="6">
+        <f>(C7/C$8)*B$8</f>
+        <v>-224.36627525045319</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="1"/>
+        <v>96.36627525045418</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -14045,8 +14119,15 @@
       <c r="Q8" s="2">
         <v>628.99999999999898</v>
       </c>
+      <c r="R8" s="6">
+        <v>-81</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9475983006414026E-14</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14065,7 +14146,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -14086,7 +14167,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -14139,7 +14220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -14192,7 +14273,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -14245,7 +14326,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -14298,7 +14379,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -14851,7 +14932,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B9 B11">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14863,7 +14944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9 C11">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14875,7 +14956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D9 D11">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14887,7 +14968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9 E11">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14899,7 +14980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F9 F11">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14911,7 +14992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G9 G11">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14923,7 +15004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9 H11">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14935,7 +15016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9 I11">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14947,7 +15028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J9 J11">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14959,7 +15040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K9 K11">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14971,7 +15052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9 L11">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14983,7 +15064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M9 M11">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14995,7 +15076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N9 N11">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15007,7 +15088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O9 O11">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15019,7 +15100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P9 P11">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15031,7 +15112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q9 Q11">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15043,6 +15124,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C18">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -15054,7 +15159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C18">
+  <conditionalFormatting sqref="E13:E18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -15066,7 +15171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
+  <conditionalFormatting sqref="F13:F18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -15078,7 +15183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E18">
+  <conditionalFormatting sqref="G13:G18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -15090,7 +15195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F18">
+  <conditionalFormatting sqref="H13:H18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -15102,7 +15207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G18">
+  <conditionalFormatting sqref="I13:I18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -15114,7 +15219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H18">
+  <conditionalFormatting sqref="J13:J18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -15126,7 +15231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I18">
+  <conditionalFormatting sqref="K13:K18">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -15138,7 +15243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J18">
+  <conditionalFormatting sqref="L13:L18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -15150,7 +15255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K18">
+  <conditionalFormatting sqref="M13:M18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -15162,7 +15267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L18">
+  <conditionalFormatting sqref="N13:N18">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -15174,7 +15279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M18">
+  <conditionalFormatting sqref="O13:O18">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -15186,7 +15291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N18">
+  <conditionalFormatting sqref="P13:P18">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -15198,7 +15303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O18">
+  <conditionalFormatting sqref="Q13:Q18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -15210,7 +15315,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P18">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -15222,8 +15507,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q18">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="B22:B27">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15234,7 +15519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="C22:C27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -15246,187 +15531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B27">
+  <conditionalFormatting sqref="D22:D27">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -15438,7 +15543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
+  <conditionalFormatting sqref="E22:E27">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -15450,7 +15555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D27">
+  <conditionalFormatting sqref="F22:F27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15462,7 +15567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E27">
+  <conditionalFormatting sqref="G22:G27">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -15474,7 +15579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F27">
+  <conditionalFormatting sqref="H22:H27">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -15486,7 +15591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G27">
+  <conditionalFormatting sqref="I22:I27">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -15498,7 +15603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H27">
+  <conditionalFormatting sqref="J22:J27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15510,7 +15615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27">
+  <conditionalFormatting sqref="K22:K27">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15522,7 +15627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J27">
+  <conditionalFormatting sqref="L22:L27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15534,7 +15639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K27">
+  <conditionalFormatting sqref="M22:M27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15546,7 +15651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L27">
+  <conditionalFormatting sqref="N22:N27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15558,7 +15663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M27">
+  <conditionalFormatting sqref="O22:O27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15570,7 +15675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N27">
+  <conditionalFormatting sqref="P22:P27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15582,7 +15687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O27">
+  <conditionalFormatting sqref="Q22:Q27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -15594,19 +15699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q27">
+  <conditionalFormatting sqref="S3:S8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15619,6 +15712,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>clust</t>
   </si>
@@ -109,6 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -196,6 +199,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +525,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -539,7 +548,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>Sheet1!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -789,7 +798,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$3:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>446.6</c:v>
@@ -900,7 +909,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1282,7 +1291,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$3:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>79813</c:v>
@@ -1393,7 +1402,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1995,11 +2004,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>Sheet1!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>beforeschool</c:v>
+                  <c:v>agrprod</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2018,27 +2027,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$8</c:f>
+              <c:f>Sheet1!$AB$3:$AB$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1219</c:v>
+                  <c:v>2726247.6132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1738.99999999999</c:v>
+                  <c:v>3467041.9999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3548.99999999999</c:v>
+                  <c:v>560449.70709999895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1038.99999999999</c:v>
+                  <c:v>1786122.5858999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009.5</c:v>
+                  <c:v>236605.806199999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.99999999999898</c:v>
+                  <c:v>467052.99389999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,7 +2500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2514,7 +2523,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>Sheet1!$U$3:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2764,7 +2773,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19550.828399999999</c:v>
@@ -2875,7 +2884,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2984,7 +2993,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3007,7 +3016,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>Sheet1!$V$3:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3232,7 +3241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3255,7 +3264,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:f>Sheet1!$W$3:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3480,7 +3489,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3503,7 +3512,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Sheet1!$X$3:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -13682,28 +13691,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13713,19 +13723,19 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -13761,8 +13771,32 @@
       <c r="S2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -13772,20 +13806,24 @@
       <c r="C3" s="2">
         <v>28921</v>
       </c>
-      <c r="D3" s="2">
-        <v>3862</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="6">
+        <f>U3/C3</f>
+        <v>0.13353618477922616</v>
+      </c>
+      <c r="E3" s="6">
         <v>19550.828399999999</v>
       </c>
-      <c r="F3" s="2">
-        <v>12728.3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>600</v>
-      </c>
-      <c r="H3" s="2">
-        <v>597866.76143999898</v>
+      <c r="F3" s="6">
+        <f>V3/C3</f>
+        <v>0.44010580547007361</v>
+      </c>
+      <c r="G3" s="6">
+        <f>W3/C3</f>
+        <v>2.0746170602676257E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>X3/C3</f>
+        <v>20.672409717506277</v>
       </c>
       <c r="I3" s="2">
         <v>29.599999999999898</v>
@@ -13793,16 +13831,17 @@
       <c r="J3" s="2">
         <v>88.999999999999901</v>
       </c>
-      <c r="K3" s="2">
-        <v>53.999999999999901</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="8">
+        <f>Y3/C3</f>
+        <v>1.8671553542408596E-3</v>
+      </c>
+      <c r="L3" s="6">
         <v>446.6</v>
       </c>
       <c r="M3" s="2">
         <v>50420</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="6">
         <v>79813</v>
       </c>
       <c r="O3" s="2">
@@ -13811,8 +13850,9 @@
       <c r="P3" s="2">
         <v>29.999999999999901</v>
       </c>
-      <c r="Q3" s="2">
-        <v>1219</v>
+      <c r="Q3" s="6">
+        <f>Z3/C3</f>
+        <v>4.2149303274437257E-2</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" ref="R3:R6" si="0">(C3/C$8)*B$8</f>
@@ -13822,8 +13862,32 @@
         <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
         <v>103.3633601576628</v>
       </c>
+      <c r="U3" s="2">
+        <v>3862</v>
+      </c>
+      <c r="V3" s="2">
+        <v>12728.3</v>
+      </c>
+      <c r="W3" s="2">
+        <v>600</v>
+      </c>
+      <c r="X3" s="2">
+        <v>597866.76143999898</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>53.999999999999901</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1219</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>50420</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2726247.6132</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -13833,20 +13897,24 @@
       <c r="C4" s="2">
         <v>34592</v>
       </c>
-      <c r="D4" s="2">
-        <v>5586.99999999999</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D8" si="2">U4/C4</f>
+        <v>0.1615113320999072</v>
+      </c>
+      <c r="E4" s="6">
         <v>19876.724880000002</v>
       </c>
-      <c r="F4" s="2">
-        <v>19828.0999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>684</v>
-      </c>
-      <c r="H4" s="2">
-        <v>751077.06191999896</v>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F8" si="3">V4/C4</f>
+        <v>0.57319900555041337</v>
+      </c>
+      <c r="G4" s="6">
+        <f>W4/C4</f>
+        <v>1.9773358001850139E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>X4/C4</f>
+        <v>21.712449754856586</v>
       </c>
       <c r="I4" s="2">
         <v>27.299999999999901</v>
@@ -13854,16 +13922,17 @@
       <c r="J4" s="2">
         <v>118</v>
       </c>
-      <c r="K4" s="2">
-        <v>82.999999999999901</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K8" si="4">Y4/C4</f>
+        <v>2.3993987049028649E-3</v>
+      </c>
+      <c r="L4" s="6">
         <v>512.29999999999905</v>
       </c>
       <c r="M4" s="2">
         <v>164982.99999999901</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="6">
         <v>29844.9</v>
       </c>
       <c r="O4" s="2">
@@ -13872,8 +13941,9 @@
       <c r="P4" s="2">
         <v>37</v>
       </c>
-      <c r="Q4" s="2">
-        <v>1738.99999999999</v>
+      <c r="Q4" s="6">
+        <f t="shared" ref="Q4:Q8" si="5">Z4/C4</f>
+        <v>5.0271739130434492E-2</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" si="0"/>
@@ -13883,8 +13953,32 @@
         <f t="shared" si="1"/>
         <v>69.083100673347985</v>
       </c>
+      <c r="U4" s="2">
+        <v>5586.99999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19828.0999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>684</v>
+      </c>
+      <c r="X4" s="2">
+        <v>751077.06191999896</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1738.99999999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>164982.99999999901</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>3467041.9999999902</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -13894,20 +13988,24 @@
       <c r="C5" s="2">
         <v>64120</v>
       </c>
-      <c r="D5" s="2">
-        <v>13408</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20910792264504055</v>
+      </c>
+      <c r="E5" s="6">
         <v>23669.997930000001</v>
       </c>
-      <c r="F5" s="2">
-        <v>50375.7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1559</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2393008.6819799999</v>
+      <c r="F5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.78564722395508413</v>
+      </c>
+      <c r="G5" s="6">
+        <f>W5/C5</f>
+        <v>2.4313786650031192E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>X5/C5</f>
+        <v>37.320784185589517</v>
       </c>
       <c r="I5" s="2">
         <v>25.8</v>
@@ -13915,16 +14013,17 @@
       <c r="J5" s="2">
         <v>132</v>
       </c>
-      <c r="K5" s="2">
-        <v>179</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="8">
+        <f t="shared" si="4"/>
+        <v>2.7916406737367437E-3</v>
+      </c>
+      <c r="L5" s="6">
         <v>388.099999999999</v>
       </c>
       <c r="M5" s="2">
         <v>18256.999999999902</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="6">
         <v>27682.999999999902</v>
       </c>
       <c r="O5" s="2">
@@ -13933,8 +14032,9 @@
       <c r="P5" s="2">
         <v>28.999999999999901</v>
       </c>
-      <c r="Q5" s="2">
-        <v>3548.99999999999</v>
+      <c r="Q5" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5349344978165786E-2</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="0"/>
@@ -13944,8 +14044,32 @@
         <f t="shared" si="1"/>
         <v>253.48382328790021</v>
       </c>
+      <c r="U5" s="2">
+        <v>13408</v>
+      </c>
+      <c r="V5" s="2">
+        <v>50375.7</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1559</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2393008.6819799999</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>3548.99999999999</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>18256.999999999902</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>560449.70709999895</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -13955,20 +14079,24 @@
       <c r="C6" s="2">
         <v>20597.999999999902</v>
       </c>
-      <c r="D6" s="2">
-        <v>3171.99999999999</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15399553354694656</v>
+      </c>
+      <c r="E6" s="6">
         <v>18703.133279999998</v>
       </c>
-      <c r="F6" s="2">
-        <v>10431.9999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>359.99999999999898</v>
-      </c>
-      <c r="H6" s="2">
-        <v>387240.08781</v>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.50645693756675159</v>
+      </c>
+      <c r="G6" s="6">
+        <f>W6/C6</f>
+        <v>1.7477424992717774E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <f>X6/C6</f>
+        <v>18.799887746868716</v>
       </c>
       <c r="I6" s="2">
         <v>28</v>
@@ -13976,16 +14104,17 @@
       <c r="J6" s="2">
         <v>71</v>
       </c>
-      <c r="K6" s="2">
-        <v>40.999999999999901</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9904845130595248E-3</v>
+      </c>
+      <c r="L6" s="6">
         <v>390.69999999999902</v>
       </c>
       <c r="M6" s="2">
         <v>58356</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="6">
         <v>18501.609999999899</v>
       </c>
       <c r="O6" s="2">
@@ -13994,8 +14123,9 @@
       <c r="P6" s="2">
         <v>27</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1038.99999999999</v>
+      <c r="Q6" s="6">
+        <f t="shared" si="5"/>
+        <v>5.044179046509345E-2</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="0"/>
@@ -14005,8 +14135,32 @@
         <f t="shared" si="1"/>
         <v>5.0042699950743668</v>
       </c>
+      <c r="U6" s="2">
+        <v>3171.99999999999</v>
+      </c>
+      <c r="V6" s="2">
+        <v>10431.9999999999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>359.99999999999898</v>
+      </c>
+      <c r="X6" s="2">
+        <v>387240.08781</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>40.999999999999901</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1038.99999999999</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>58356</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1786122.5858999901</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -14016,20 +14170,24 @@
       <c r="C7" s="2">
         <v>33732.5</v>
       </c>
-      <c r="D7" s="2">
-        <v>7205.99999999999</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21362187801082014</v>
+      </c>
+      <c r="E7" s="6">
         <v>25047.74784</v>
       </c>
-      <c r="F7" s="2">
-        <v>24889.1499999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>798.49999999999898</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1103030.3076499901</v>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.73783887941895498</v>
+      </c>
+      <c r="G7" s="6">
+        <f>W7/C7</f>
+        <v>2.3671533387682471E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <f>X7/C7</f>
+        <v>32.699334696509005</v>
       </c>
       <c r="I7" s="2">
         <v>26.454999999999998</v>
@@ -14037,16 +14195,17 @@
       <c r="J7" s="2">
         <v>82.999999999999901</v>
       </c>
-      <c r="K7" s="2">
-        <v>90.999999999999901</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="8">
+        <f t="shared" si="4"/>
+        <v>2.6976951011635632E-3</v>
+      </c>
+      <c r="L7" s="6">
         <v>250.74999999999901</v>
       </c>
       <c r="M7" s="2">
         <v>8025.99999999997</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="6">
         <v>11041.1049999999</v>
       </c>
       <c r="O7" s="2">
@@ -14055,8 +14214,9 @@
       <c r="P7" s="2">
         <v>14</v>
       </c>
-      <c r="Q7" s="2">
-        <v>2009.5</v>
+      <c r="Q7" s="6">
+        <f t="shared" si="5"/>
+        <v>5.9571629733936114E-2</v>
       </c>
       <c r="R7" s="6">
         <f>(C7/C$8)*B$8</f>
@@ -14066,8 +14226,32 @@
         <f t="shared" si="1"/>
         <v>96.36627525045418</v>
       </c>
+      <c r="U7" s="2">
+        <v>7205.99999999999</v>
+      </c>
+      <c r="V7" s="2">
+        <v>24889.1499999999</v>
+      </c>
+      <c r="W7" s="2">
+        <v>798.49999999999898</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1103030.3076499901</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>90.999999999999901</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2009.5</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>8025.99999999997</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>236605.806199999</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -14077,20 +14261,24 @@
       <c r="C8" s="2">
         <v>12177.9999999999</v>
       </c>
-      <c r="D8" s="2">
-        <v>1916.99999999999</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15741501067498814</v>
+      </c>
+      <c r="E8" s="6">
         <v>18799.530149999999</v>
       </c>
-      <c r="F8" s="2">
-        <v>6486.99999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>201.99999999999901</v>
-      </c>
-      <c r="H8" s="2">
-        <v>260552.33490999899</v>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.53268188536705885</v>
+      </c>
+      <c r="G8" s="6">
+        <f>W8/C8</f>
+        <v>1.6587288553128646E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <f>X8/C8</f>
+        <v>21.39533050665143</v>
       </c>
       <c r="I8" s="2">
         <v>30.499999999999901</v>
@@ -14098,16 +14286,17 @@
       <c r="J8" s="2">
         <v>39.999999999999901</v>
       </c>
-      <c r="K8" s="2">
-        <v>23.999999999999901</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9707669568073656E-3</v>
+      </c>
+      <c r="L8" s="6">
         <v>277.39999999999901</v>
       </c>
       <c r="M8" s="2">
         <v>18229.979999999901</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="6">
         <v>8245.4</v>
       </c>
       <c r="O8" s="2">
@@ -14116,8 +14305,9 @@
       <c r="P8" s="2">
         <v>15.999999999999901</v>
       </c>
-      <c r="Q8" s="2">
-        <v>628.99999999999898</v>
+      <c r="Q8" s="6">
+        <f t="shared" si="5"/>
+        <v>5.1650517326326501E-2</v>
       </c>
       <c r="R8" s="6">
         <v>-81</v>
@@ -14126,8 +14316,32 @@
         <f t="shared" si="1"/>
         <v>9.9475983006414026E-14</v>
       </c>
+      <c r="U8" s="2">
+        <v>1916.99999999999</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6486.99999999999</v>
+      </c>
+      <c r="W8" s="2">
+        <v>201.99999999999901</v>
+      </c>
+      <c r="X8" s="2">
+        <v>260552.33490999899</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>23.999999999999901</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>628.99999999999898</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>18229.979999999901</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>467052.99389999901</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14146,7 +14360,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -14167,7 +14381,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -14220,7 +14434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -14273,7 +14487,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -14326,7 +14540,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -14379,7 +14593,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -14932,7 +15146,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B9 B11">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14944,7 +15158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9 C11">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14956,7 +15170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D9 D11">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14968,7 +15182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9 E11">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14980,7 +15194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F9 F11">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14992,7 +15206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G9 G11">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15004,7 +15218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9 H11">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15016,7 +15230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9 I11">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15028,7 +15242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J9 J11">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15040,7 +15254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K9 K11">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15052,7 +15266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9 L11">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15063,8 +15277,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9 M11">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="M9 M11">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15076,7 +15290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N9 N11">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15087,8 +15301,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O9 O11">
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="O9 O11">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15100,7 +15314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P9 P11">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15112,7 +15326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q9 Q11">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15124,6 +15338,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C18">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D18">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E18">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F18">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G18">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H18">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I18">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J18">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K18">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L18">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -15135,7 +15469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C18">
+  <conditionalFormatting sqref="M13:M18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -15147,7 +15481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
+  <conditionalFormatting sqref="N13:N18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -15159,7 +15493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E18">
+  <conditionalFormatting sqref="O13:O18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -15171,7 +15505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F18">
+  <conditionalFormatting sqref="P13:P18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -15183,7 +15517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G18">
+  <conditionalFormatting sqref="Q13:Q18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -15195,7 +15529,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H18">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -15207,8 +15721,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I18">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="B22:B27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15219,8 +15733,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J18">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="C22:C27">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15231,8 +15745,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K18">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="D22:D27">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15243,8 +15757,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L18">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="E22:E27">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15255,8 +15769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M18">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="F22:F27">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15267,8 +15781,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N18">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="G22:G27">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15279,8 +15793,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O18">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="H22:H27">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15291,8 +15805,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P18">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="I22:I27">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15303,8 +15817,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q18">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="J22:J27">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15315,7 +15829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="K22:K27">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -15327,187 +15841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B27">
+  <conditionalFormatting sqref="L22:L27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -15519,7 +15853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
+  <conditionalFormatting sqref="M22:M27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -15531,7 +15865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D27">
+  <conditionalFormatting sqref="N22:N27">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -15543,7 +15877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E27">
+  <conditionalFormatting sqref="O22:O27">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -15555,7 +15889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F27">
+  <conditionalFormatting sqref="P22:P27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15567,7 +15901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G27">
+  <conditionalFormatting sqref="Q22:Q27">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -15579,19 +15913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27">
+  <conditionalFormatting sqref="S3:S8">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -15603,7 +15925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J27">
+  <conditionalFormatting sqref="X3:X8">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15615,7 +15937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K27">
+  <conditionalFormatting sqref="W3:W8">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15627,7 +15949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L27">
+  <conditionalFormatting sqref="V3:V8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15639,7 +15961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M27">
+  <conditionalFormatting sqref="U3:U8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15651,7 +15973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N27">
+  <conditionalFormatting sqref="Y3:Y8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15663,7 +15985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O27">
+  <conditionalFormatting sqref="Z3:Z8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15675,7 +15997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P27">
+  <conditionalFormatting sqref="AA3:AA8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15687,7 +16009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q27">
+  <conditionalFormatting sqref="AB3:AB8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -15699,7 +16021,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S8">
+  <conditionalFormatting sqref="O3:O8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -9,17 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">example!$F$20:$T$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">example!$F$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">example!$F$20:$T$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">example!$F$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">example!$F$20:$T$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">example!$F$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">example!$F$20:$T$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">example!$F$21:$T$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="35">
   <si>
     <t>clust</t>
   </si>
@@ -104,6 +115,27 @@
   <si>
     <t>abs (worst case - real)</t>
   </si>
+  <si>
+    <t>город Яровое</t>
+  </si>
+  <si>
+    <t>город Боготол</t>
+  </si>
+  <si>
+    <t>Сценрий</t>
+  </si>
+  <si>
+    <t>лучший (2)</t>
+  </si>
+  <si>
+    <t>средний (4)</t>
+  </si>
+  <si>
+    <t>Фактические данные</t>
+  </si>
+  <si>
+    <t>Вектор развития согласно сценарию</t>
+  </si>
 </sst>
 </file>
 
@@ -112,12 +144,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,13 +176,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -183,28 +246,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +559,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,7 +806,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -980,7 +1053,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1225,7 +1297,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1470,7 +1541,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1715,7 +1785,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1963,7 +2032,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2196,6 +2264,1127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вектор развития в направлении светлого</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$F$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$F$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.6240321030916203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1448212648945946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4982399922615615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0208883745061286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1651718983557549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0723986310305951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91489361702127669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9411764705882362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0813953488372099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1629991850040695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5713427029097735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.326598177651377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9647058823529289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F96-4D64-BC85-678D78B9FD27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0"/>
+              <a:t>Вектор развития в направлении светлого</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" baseline="0"/>
+              <a:t> будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$F$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$F$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.6240321030916203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1448212648945946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4982399922615615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0208883745061286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1651718983557549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0723986310305951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91489361702127669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9411764705882362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0813953488372099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1629991850040695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5713427029097735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.326598177651377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9647058823529289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFEB-4D34-A154-2C62EA945FFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вектор развития в направлении среднего</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$F$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$F$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.9065449612841248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3024747937671828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5854474360729756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9866025461946695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5967862481315388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4161874266185424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93812056737588645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2205882352941166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0581395348837201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0436022819885835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8232371771054559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8926218987877599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3773109243697506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F061-4468-83C2-FC18C0CBE174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2414,6 +3603,1147 @@
         <a:lumMod val="20000"/>
         <a:lumOff val="80000"/>
       </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0"/>
+              <a:t>Вектор развития в направлении</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" baseline="0"/>
+              <a:t> среднего будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$F$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$F$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.9065449612841248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3024747937671828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5854474360729756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9866025461946695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5967862481315388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4161874266185424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93812056737588645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2205882352941166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0581395348837201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0436022819885835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8232371771054559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8926218987877599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3773109243697506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8944-499C-96C5-011D58841831}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вектор развития в направлении светлого</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$AD$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$AD$21:$AR$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5396080596191002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2217067108533559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89158618014857427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5358564199030003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7566265060240975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4094198701773526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88659793814432986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5098039215686287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0511006289308096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9069120479349557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4669453561310855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8636512881975911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8333333333333233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9433333333333223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D72-43D5-B6D8-40D90D6A16F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0"/>
+              <a:t>Вектор развития в направлении светлого</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" baseline="0"/>
+              <a:t> будущего</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>example!$AD$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example!$AD$21:$AR$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5396080596191002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2217067108533559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89158618014857427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5358564199030003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7566265060240975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4094198701773526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88659793814432986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5098039215686287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0511006289308096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9069120479349557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4669453561310855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8636512881975911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8333333333333233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9433333333333223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DD7-45B3-ADA4-CAF3FFCF251C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108296095"/>
+        <c:axId val="2108289855"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="2108296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108289855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108289855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108296095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3200,7 +5530,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3448,7 +5777,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3696,7 +6024,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3941,7 +6268,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4491,7 +6817,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8851,8 +11417,3038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13406,6 +19002,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>415017</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139474</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13693,8 +19484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13818,11 +19609,11 @@
         <v>0.44010580547007361</v>
       </c>
       <c r="G3" s="6">
-        <f>W3/C3</f>
+        <f t="shared" ref="G3:G8" si="0">W3/C3</f>
         <v>2.0746170602676257E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>X3/C3</f>
+        <f t="shared" ref="H3:H8" si="1">X3/C3</f>
         <v>20.672409717506277</v>
       </c>
       <c r="I3" s="2">
@@ -13855,11 +19646,11 @@
         <v>4.2149303274437257E-2</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" ref="R3:R6" si="0">(C3/C$8)*B$8</f>
+        <f t="shared" ref="R3:R6" si="2">(C3/C$8)*B$8</f>
         <v>-192.3633601576627</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
+        <f t="shared" ref="S3:S8" si="3">ABS(R3-B3)</f>
         <v>103.3633601576628</v>
       </c>
       <c r="U3" s="2">
@@ -13898,22 +19689,22 @@
         <v>34592</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D8" si="2">U4/C4</f>
+        <f t="shared" ref="D4:D8" si="4">U4/C4</f>
         <v>0.1615113320999072</v>
       </c>
       <c r="E4" s="6">
         <v>19876.724880000002</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="3">V4/C4</f>
+        <f t="shared" ref="F4:F8" si="5">V4/C4</f>
         <v>0.57319900555041337</v>
       </c>
       <c r="G4" s="6">
-        <f>W4/C4</f>
+        <f t="shared" si="0"/>
         <v>1.9773358001850139E-2</v>
       </c>
       <c r="H4" s="6">
-        <f>X4/C4</f>
+        <f t="shared" si="1"/>
         <v>21.712449754856586</v>
       </c>
       <c r="I4" s="2">
@@ -13923,7 +19714,7 @@
         <v>118</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K8" si="4">Y4/C4</f>
+        <f t="shared" ref="K4:K8" si="6">Y4/C4</f>
         <v>2.3993987049028649E-3</v>
       </c>
       <c r="L4" s="6">
@@ -13942,15 +19733,15 @@
         <v>37</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q8" si="5">Z4/C4</f>
+        <f t="shared" ref="Q4:Q8" si="7">Z4/C4</f>
         <v>5.0271739130434492E-2</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-230.08310067334699</v>
       </c>
       <c r="S4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.083100673347985</v>
       </c>
       <c r="U4" s="2">
@@ -13989,22 +19780,22 @@
         <v>64120</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20910792264504055</v>
       </c>
       <c r="E5" s="6">
         <v>23669.997930000001</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78564722395508413</v>
       </c>
       <c r="G5" s="6">
-        <f>W5/C5</f>
+        <f t="shared" si="0"/>
         <v>2.4313786650031192E-2</v>
       </c>
       <c r="H5" s="6">
-        <f>X5/C5</f>
+        <f t="shared" si="1"/>
         <v>37.320784185589517</v>
       </c>
       <c r="I5" s="2">
@@ -14014,7 +19805,7 @@
         <v>132</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7916406737367437E-3</v>
       </c>
       <c r="L5" s="6">
@@ -14033,15 +19824,15 @@
         <v>28.999999999999901</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5349344978165786E-2</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-426.48382328789921</v>
       </c>
       <c r="S5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>253.48382328790021</v>
       </c>
       <c r="U5" s="2">
@@ -14080,22 +19871,22 @@
         <v>20597.999999999902</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15399553354694656</v>
       </c>
       <c r="E6" s="6">
         <v>18703.133279999998</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50645693756675159</v>
       </c>
       <c r="G6" s="6">
-        <f>W6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.7477424992717774E-2</v>
       </c>
       <c r="H6" s="6">
-        <f>X6/C6</f>
+        <f t="shared" si="1"/>
         <v>18.799887746868716</v>
       </c>
       <c r="I6" s="2">
@@ -14105,7 +19896,7 @@
         <v>71</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9904845130595248E-3</v>
       </c>
       <c r="L6" s="6">
@@ -14124,15 +19915,15 @@
         <v>27</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.044179046509345E-2</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-137.00426999507337</v>
       </c>
       <c r="S6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0042699950743668</v>
       </c>
       <c r="U6" s="2">
@@ -14171,22 +19962,22 @@
         <v>33732.5</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21362187801082014</v>
       </c>
       <c r="E7" s="6">
         <v>25047.74784</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73783887941895498</v>
       </c>
       <c r="G7" s="6">
-        <f>W7/C7</f>
+        <f t="shared" si="0"/>
         <v>2.3671533387682471E-2</v>
       </c>
       <c r="H7" s="6">
-        <f>X7/C7</f>
+        <f t="shared" si="1"/>
         <v>32.699334696509005</v>
       </c>
       <c r="I7" s="2">
@@ -14196,7 +19987,7 @@
         <v>82.999999999999901</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6976951011635632E-3</v>
       </c>
       <c r="L7" s="6">
@@ -14215,7 +20006,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9571629733936114E-2</v>
       </c>
       <c r="R7" s="6">
@@ -14223,7 +20014,7 @@
         <v>-224.36627525045319</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96.36627525045418</v>
       </c>
       <c r="U7" s="2">
@@ -14262,22 +20053,22 @@
         <v>12177.9999999999</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15741501067498814</v>
       </c>
       <c r="E8" s="6">
         <v>18799.530149999999</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53268188536705885</v>
       </c>
       <c r="G8" s="6">
-        <f>W8/C8</f>
+        <f t="shared" si="0"/>
         <v>1.6587288553128646E-2</v>
       </c>
       <c r="H8" s="6">
-        <f>X8/C8</f>
+        <f t="shared" si="1"/>
         <v>21.39533050665143</v>
       </c>
       <c r="I8" s="2">
@@ -14287,7 +20078,7 @@
         <v>39.999999999999901</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9707669568073656E-3</v>
       </c>
       <c r="L8" s="6">
@@ -14306,14 +20097,14 @@
         <v>15.999999999999901</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1650517326326501E-2</v>
       </c>
       <c r="R8" s="6">
         <v>-81</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9475983006414026E-14</v>
       </c>
       <c r="U8" s="2">
@@ -16049,4 +21840,1170 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-88.999999999999901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28921</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3862</v>
+      </c>
+      <c r="E3" s="6">
+        <v>19550.828399999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12728.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>600</v>
+      </c>
+      <c r="H3" s="2">
+        <v>597866.76143999898</v>
+      </c>
+      <c r="I3" s="2">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="J3" s="2">
+        <v>88.999999999999901</v>
+      </c>
+      <c r="K3" s="2">
+        <v>53.999999999999901</v>
+      </c>
+      <c r="L3" s="6">
+        <v>446.6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50420</v>
+      </c>
+      <c r="N3" s="6">
+        <v>79813</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2726247.6132</v>
+      </c>
+      <c r="P3" s="2">
+        <v>29.999999999999901</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1219</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R6" si="0">(C3/C$8)*B$8</f>
+        <v>-192.3633601576627</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
+        <v>103.3633601576628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-160.99999999999901</v>
+      </c>
+      <c r="C4" s="2">
+        <v>34592</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5586.99999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>19876.724880000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19828.0999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>684</v>
+      </c>
+      <c r="H4" s="2">
+        <v>751077.06191999896</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27.299999999999901</v>
+      </c>
+      <c r="J4" s="2">
+        <v>118</v>
+      </c>
+      <c r="K4" s="2">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="L4" s="6">
+        <v>512.29999999999905</v>
+      </c>
+      <c r="M4" s="2">
+        <v>164982.99999999901</v>
+      </c>
+      <c r="N4" s="6">
+        <v>29844.9</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3467041.9999999902</v>
+      </c>
+      <c r="P4" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1738.99999999999</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>-230.08310067334699</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>69.083100673347985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-172.99999999999901</v>
+      </c>
+      <c r="C5" s="2">
+        <v>64120</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13408</v>
+      </c>
+      <c r="E5" s="6">
+        <v>23669.997930000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50375.7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1559</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2393008.6819799999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2">
+        <v>179</v>
+      </c>
+      <c r="L5" s="6">
+        <v>388.099999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>18256.999999999902</v>
+      </c>
+      <c r="N5" s="6">
+        <v>27682.999999999902</v>
+      </c>
+      <c r="O5" s="2">
+        <v>560449.70709999895</v>
+      </c>
+      <c r="P5" s="2">
+        <v>28.999999999999901</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3548.99999999999</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>-426.48382328789921</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>253.48382328790021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-131.99999999999901</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20597.999999999902</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3171.99999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>18703.133279999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10431.9999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>359.99999999999898</v>
+      </c>
+      <c r="H6" s="2">
+        <v>387240.08781</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>71</v>
+      </c>
+      <c r="K6" s="2">
+        <v>40.999999999999901</v>
+      </c>
+      <c r="L6" s="6">
+        <v>390.69999999999902</v>
+      </c>
+      <c r="M6" s="2">
+        <v>58356</v>
+      </c>
+      <c r="N6" s="6">
+        <v>18501.609999999899</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1786122.5858999901</v>
+      </c>
+      <c r="P6" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1038.99999999999</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>-137.00426999507337</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0042699950743668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-127.99999999999901</v>
+      </c>
+      <c r="C7" s="2">
+        <v>33732.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7205.99999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25047.74784</v>
+      </c>
+      <c r="F7" s="2">
+        <v>24889.1499999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>798.49999999999898</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1103030.3076499901</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26.454999999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="K7" s="2">
+        <v>90.999999999999901</v>
+      </c>
+      <c r="L7" s="6">
+        <v>250.74999999999901</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8025.99999999997</v>
+      </c>
+      <c r="N7" s="6">
+        <v>11041.1049999999</v>
+      </c>
+      <c r="O7" s="2">
+        <v>236605.806199999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2009.5</v>
+      </c>
+      <c r="R7" s="6">
+        <f>(C7/C$8)*B$8</f>
+        <v>-224.36627525045319</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="1"/>
+        <v>96.36627525045418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-80.999999999999901</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12177.9999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1916.99999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18799.530149999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6486.99999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>201.99999999999901</v>
+      </c>
+      <c r="H8" s="2">
+        <v>260552.33490999899</v>
+      </c>
+      <c r="I8" s="2">
+        <v>30.499999999999901</v>
+      </c>
+      <c r="J8" s="2">
+        <v>39.999999999999901</v>
+      </c>
+      <c r="K8" s="2">
+        <v>23.999999999999901</v>
+      </c>
+      <c r="L8" s="6">
+        <v>277.39999999999901</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18229.979999999901</v>
+      </c>
+      <c r="N8" s="6">
+        <v>8245.4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>467052.99389999901</v>
+      </c>
+      <c r="P8" s="2">
+        <v>15.999999999999901</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>628.99999999999898</v>
+      </c>
+      <c r="R8" s="6">
+        <v>-81</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>1730000</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>157.99999999999989</v>
+      </c>
+      <c r="F15" s="2">
+        <v>17692.999999999989</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2181.9999999999991</v>
+      </c>
+      <c r="H15" s="2">
+        <v>15798.53565</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12528.499999999991</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="K15" s="2">
+        <v>778873.11164999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>67.999999999999972</v>
+      </c>
+      <c r="N15" s="2">
+        <v>85.999999999999972</v>
+      </c>
+      <c r="O15" s="2">
+        <v>122.6999999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <v>196.99999999997829</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>6055.7699999999959</v>
+      </c>
+      <c r="R15" s="2">
+        <v>34327.402499999611</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.999999999999998</v>
+      </c>
+      <c r="T15" s="2">
+        <v>594.99999999999955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>4706000</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-125</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18115</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6034.9999999999991</v>
+      </c>
+      <c r="H16" s="2">
+        <v>26548.188450000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14247.099999999989</v>
+      </c>
+      <c r="J16" s="2">
+        <v>414.99999999999989</v>
+      </c>
+      <c r="K16" s="2">
+        <v>701881.48514999985</v>
+      </c>
+      <c r="L16" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>39.999999999999979</v>
+      </c>
+      <c r="N16" s="2">
+        <v>50.999999999999979</v>
+      </c>
+      <c r="O16" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4672.9999999999627</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>11221.57</v>
+      </c>
+      <c r="R16" s="2">
+        <v>56819.699999999822</v>
+      </c>
+      <c r="S16" s="2">
+        <v>5.999999999999992</v>
+      </c>
+      <c r="T16" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>1730000</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2">
+        <f>C5/F15</f>
+        <v>3.6240321030916203</v>
+      </c>
+      <c r="G21" s="2">
+        <f>D5/G15</f>
+        <v>6.1448212648945946</v>
+      </c>
+      <c r="H21" s="2">
+        <f>E5/H15</f>
+        <v>1.4982399922615615</v>
+      </c>
+      <c r="I21" s="2">
+        <f>F5/I15</f>
+        <v>4.0208883745061286</v>
+      </c>
+      <c r="J21" s="2">
+        <f>G5/J15</f>
+        <v>1.1651718983557549</v>
+      </c>
+      <c r="K21" s="2">
+        <f>H5/K15</f>
+        <v>3.0723986310305951</v>
+      </c>
+      <c r="L21" s="2">
+        <f>I5/L15</f>
+        <v>0.91489361702127669</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ref="M21:T21" si="2">J5/M15</f>
+        <v>1.9411764705882362</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0813953488372099</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1629991850040695</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="2">
+        <f>N5/Q15</f>
+        <v>4.5713427029097735</v>
+      </c>
+      <c r="R21" s="2">
+        <f>O5/R15</f>
+        <v>16.326598177651377</v>
+      </c>
+      <c r="S21" s="2">
+        <f>P5/S15</f>
+        <v>14.499999999999964</v>
+      </c>
+      <c r="T21" s="2">
+        <f>Q5/T15</f>
+        <v>5.9647058823529289</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>4706000</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>2022</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21">
+        <f>C5/F16</f>
+        <v>3.5396080596191002</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21:AR21" si="3">D5/G16</f>
+        <v>2.2217067108533559</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="3"/>
+        <v>0.89158618014857427</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>3.5358564199030003</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="3"/>
+        <v>3.7566265060240975</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="3"/>
+        <v>3.4094198701773526</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="3"/>
+        <v>0.88659793814432986</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="3"/>
+        <v>3.5098039215686287</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="3"/>
+        <v>3.0511006289308096</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="3"/>
+        <v>3.9069120479349557</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="3"/>
+        <v>2.4669453561310855</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>9.8636512881975911</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="3"/>
+        <v>4.8333333333333233</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="3"/>
+        <v>3.9433333333333223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>1730000</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="14">
+        <v>5</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2">
+        <f>C7/F15</f>
+        <v>1.9065449612841248</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:T22" si="4">D7/G15</f>
+        <v>3.3024747937671828</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5854474360729756</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9866025461946695</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5967862481315388</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4161874266185424</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93812056737588645</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2205882352941166</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0581395348837201</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0436022819885835</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8232371771054559</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>6.8926218987877599</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000071</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3773109243697506</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -15,16 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">example!$F$20:$T$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">example!$F$21:$T$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">example!$F$20:$T$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">example!$F$21:$T$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">example!$F$20:$T$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">example!$F$21:$T$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">example!$F$20:$T$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">example!$F$21:$T$21</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -559,6 +549,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -806,6 +797,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1053,6 +1045,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1297,6 +1290,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1541,6 +1535,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1785,6 +1780,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2032,6 +2028,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2072,11 +2069,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$2</c:f>
+              <c:f>Sheet1!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>agrprod</c:v>
+                  <c:v>beforeschool</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2095,27 +2092,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$8</c:f>
+              <c:f>Sheet1!$Z$3:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2726247.6132</c:v>
+                  <c:v>1219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3467041.9999999902</c:v>
+                  <c:v>1738.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560449.70709999895</c:v>
+                  <c:v>3548.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1786122.5858999901</c:v>
+                  <c:v>1038.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236605.806199999</c:v>
+                  <c:v>2009.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467052.99389999901</c:v>
+                  <c:v>628.99999999999898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,7 +3411,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5530,6 +5527,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5777,6 +5775,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6024,6 +6023,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6222,7 +6222,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6268,6 +6271,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19484,8 +19488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21068,7 +21072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M11">
+  <conditionalFormatting sqref="M11 M9">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -21092,7 +21096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O11">
+  <conditionalFormatting sqref="O11 O9">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -21847,14 +21851,15 @@
   <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="27" max="27" width="17.28515625" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
@@ -22591,43 +22596,43 @@
         <v>31</v>
       </c>
       <c r="F21" s="2">
-        <f>C5/F15</f>
+        <f t="shared" ref="F21:L21" si="2">C5/F15</f>
         <v>3.6240321030916203</v>
       </c>
       <c r="G21" s="2">
-        <f>D5/G15</f>
+        <f t="shared" si="2"/>
         <v>6.1448212648945946</v>
       </c>
       <c r="H21" s="2">
-        <f>E5/H15</f>
+        <f t="shared" si="2"/>
         <v>1.4982399922615615</v>
       </c>
       <c r="I21" s="2">
-        <f>F5/I15</f>
+        <f t="shared" si="2"/>
         <v>4.0208883745061286</v>
       </c>
       <c r="J21" s="2">
-        <f>G5/J15</f>
+        <f t="shared" si="2"/>
         <v>1.1651718983557549</v>
       </c>
       <c r="K21" s="2">
-        <f>H5/K15</f>
+        <f t="shared" si="2"/>
         <v>3.0723986310305951</v>
       </c>
       <c r="L21" s="2">
-        <f>I5/L15</f>
+        <f t="shared" si="2"/>
         <v>0.91489361702127669</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:T21" si="2">J5/M15</f>
+        <f t="shared" ref="M21:O21" si="3">J5/M15</f>
         <v>1.9411764705882362</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0813953488372099</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1629991850040695</v>
       </c>
       <c r="P21" s="11"/>
@@ -22667,59 +22672,59 @@
         <v>3.5396080596191002</v>
       </c>
       <c r="AE21">
-        <f t="shared" ref="AE21:AR21" si="3">D5/G16</f>
+        <f t="shared" ref="AE21:AR21" si="4">D5/G16</f>
         <v>2.2217067108533559</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89158618014857427</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5358564199030003</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7566265060240975</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4094198701773526</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88659793814432986</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3000000000000016</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5098039215686287</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0511006289308096</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9069120479349557</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4669453561310855</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8636512881975911</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8333333333333233</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9433333333333223</v>
       </c>
     </row>
@@ -22744,56 +22749,56 @@
         <v>1.9065449612841248</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" ref="G22:T22" si="4">D7/G15</f>
+        <f t="shared" ref="G22:T22" si="5">D7/G15</f>
         <v>3.3024747937671828</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5854474360729756</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9866025461946695</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5967862481315388</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4161874266185424</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93812056737588645</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2205882352941166</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0581395348837201</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0436022819885835</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8232371771054559</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8926218987877599</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000071</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3773109243697506</v>
       </c>
     </row>

--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="41">
   <si>
     <t>clust</t>
   </si>
@@ -126,6 +126,24 @@
   <si>
     <t>Вектор развития согласно сценарию</t>
   </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>сельхоз (посев)</t>
+  </si>
+  <si>
+    <t>сельхоз (скот, худший)</t>
+  </si>
+  <si>
+    <t>сельхоз (скот)</t>
+  </si>
+  <si>
+    <t>гибрид лучший</t>
+  </si>
+  <si>
+    <t>гибрид средний</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +215,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,11 +256,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -272,6 +305,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -304,7 +346,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -549,7 +590,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +837,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1045,7 +1084,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1290,7 +1328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1535,7 +1572,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1780,7 +1816,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2028,7 +2063,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3058,7 +3092,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3397,7 +3430,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3675,7 +3707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4430,7 +4461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4786,7 +4816,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5034,7 +5063,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5279,7 +5307,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5527,7 +5554,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5775,7 +5801,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6023,7 +6048,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6271,7 +6295,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19489,7 +19512,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O3" sqref="M3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21851,7 +21874,7 @@
   <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21859,7 +21882,8 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
     <col min="27" max="27" width="17.28515625" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
@@ -21924,8 +21948,11 @@
       <c r="R2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -21988,6 +22015,9 @@
         <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
         <v>103.3633601576628</v>
       </c>
+      <c r="T3" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -22049,6 +22079,9 @@
         <f t="shared" si="1"/>
         <v>69.083100673347985</v>
       </c>
+      <c r="T4" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -22110,6 +22143,9 @@
         <f t="shared" si="1"/>
         <v>253.48382328790021</v>
       </c>
+      <c r="T5" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -22171,6 +22207,9 @@
         <f t="shared" si="1"/>
         <v>5.0042699950743668</v>
       </c>
+      <c r="T6" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -22232,6 +22271,9 @@
         <f t="shared" si="1"/>
         <v>96.36627525045418</v>
       </c>
+      <c r="T7" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -22291,6 +22333,9 @@
       <c r="S8" s="6">
         <f t="shared" si="1"/>
         <v>9.9475983006414026E-14</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">

--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>clust</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>гибрид средний</t>
+  </si>
+  <si>
+    <t>abs (worst case - pred)</t>
+  </si>
+  <si>
+    <t>prediction</t>
   </si>
 </sst>
 </file>
@@ -3092,6 +3098,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3707,6 +3714,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21095,7 +21103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11 M9">
+  <conditionalFormatting sqref="M9 M11">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -21119,7 +21127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11 O9">
+  <conditionalFormatting sqref="O9 O11">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -21874,7 +21882,7 @@
   <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21882,18 +21890,21 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
     <col min="27" max="27" width="17.28515625" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21951,11 +21962,17 @@
       <c r="S2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -22015,11 +22032,18 @@
         <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
         <v>103.3633601576628</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="2">
+        <v>-164</v>
+      </c>
+      <c r="U3" s="6">
+        <f>ABS(T3-R3)</f>
+        <v>28.363360157662697</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -22079,11 +22103,18 @@
         <f t="shared" si="1"/>
         <v>69.083100673347985</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="2">
+        <v>-207</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" ref="U4:U8" si="2">ABS(T4-R4)</f>
+        <v>23.083100673346991</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -22143,11 +22174,18 @@
         <f t="shared" si="1"/>
         <v>253.48382328790021</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="2">
+        <v>-200</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="2"/>
+        <v>226.48382328789921</v>
+      </c>
+      <c r="V5" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -22207,11 +22245,18 @@
         <f t="shared" si="1"/>
         <v>5.0042699950743668</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="2">
+        <v>-132</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="2"/>
+        <v>5.004269995073372</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -22271,11 +22316,18 @@
         <f t="shared" si="1"/>
         <v>96.36627525045418</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="2">
+        <v>-87</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="2"/>
+        <v>137.36627525045319</v>
+      </c>
+      <c r="V7" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -22334,16 +22386,23 @@
         <f t="shared" si="1"/>
         <v>9.9475983006414026E-14</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="2">
+        <v>-90</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="V8" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E13" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -22397,7 +22456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1730000</v>
       </c>
@@ -22459,7 +22518,7 @@
         <v>594.99999999999955</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>4706000</v>
       </c>
@@ -22641,43 +22700,43 @@
         <v>31</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:L21" si="2">C5/F15</f>
+        <f t="shared" ref="F21:L21" si="3">C5/F15</f>
         <v>3.6240321030916203</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1448212648945946</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4982399922615615</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0208883745061286</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1651718983557549</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0723986310305951</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91489361702127669</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:O21" si="3">J5/M15</f>
+        <f t="shared" ref="M21:O21" si="4">J5/M15</f>
         <v>1.9411764705882362</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0813953488372099</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1629991850040695</v>
       </c>
       <c r="P21" s="11"/>
@@ -22717,59 +22776,59 @@
         <v>3.5396080596191002</v>
       </c>
       <c r="AE21">
-        <f t="shared" ref="AE21:AR21" si="4">D5/G16</f>
+        <f t="shared" ref="AE21:AR21" si="5">D5/G16</f>
         <v>2.2217067108533559</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89158618014857427</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5358564199030003</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7566265060240975</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4094198701773526</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88659793814432986</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3000000000000016</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5098039215686287</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0511006289308096</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9069120479349557</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4669453561310855</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8636512881975911</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8333333333333233</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9433333333333223</v>
       </c>
     </row>
@@ -22794,61 +22853,169 @@
         <v>1.9065449612841248</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" ref="G22:T22" si="5">D7/G15</f>
+        <f t="shared" ref="G22:T22" si="6">D7/G15</f>
         <v>3.3024747937671828</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5854474360729756</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9866025461946695</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5967862481315388</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4161874266185424</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93812056737588645</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2205882352941166</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0581395348837201</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0436022819885835</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8232371771054559</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8926218987877599</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000000071</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3773109243697506</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S8">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -22860,8 +23027,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C8">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="O3:O8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22872,7 +23039,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -22884,115 +23063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I8">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L8">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N8">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P8">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M8">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="H3:H8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -23004,7 +23075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
+  <conditionalFormatting sqref="G3:G8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -23016,7 +23087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G8">
+  <conditionalFormatting sqref="K3:K8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -23028,7 +23099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8">
+  <conditionalFormatting sqref="Q3:Q8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23040,7 +23111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q8">
+  <conditionalFormatting sqref="U3:U8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -3098,7 +3098,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3714,7 +3713,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4097,7 +4095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21103,7 +21100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M11">
+  <conditionalFormatting sqref="M11 M9">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -21127,7 +21124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O11">
+  <conditionalFormatting sqref="O11 O9">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -21882,14 +21879,16 @@
   <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>

--- a/migforecasting/clustering/median of clusters-2.xlsx
+++ b/migforecasting/clustering/median of clusters-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t>clust</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>prediction</t>
   </si>
+  <si>
+    <t>Mig prop</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -318,6 +321,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3098,6 +3104,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3713,6 +3720,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4095,6 +4103,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21878,8 +21887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21889,21 +21898,21 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
     <col min="27" max="27" width="17.28515625" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21956,22 +21965,25 @@
         <v>16</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -22023,26 +22035,30 @@
       <c r="Q3" s="2">
         <v>1219</v>
       </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3:R6" si="0">(C3/C$8)*B$8</f>
+      <c r="R3" s="18">
+        <f>B3/C3</f>
+        <v>-3.0773486393969743E-3</v>
+      </c>
+      <c r="S3" s="6">
+        <f>(C3/C$8)*B$8</f>
         <v>-192.3633601576627</v>
       </c>
-      <c r="S3" s="6">
-        <f t="shared" ref="S3:S8" si="1">ABS(R3-B3)</f>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T8" si="0">ABS(S3-B3)</f>
         <v>103.3633601576628</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>-164</v>
       </c>
-      <c r="U3" s="6">
-        <f>ABS(T3-R3)</f>
+      <c r="V3" s="6">
+        <f>ABS(U3-S3)</f>
         <v>28.363360157662697</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -22094,26 +22110,30 @@
       <c r="Q4" s="2">
         <v>1738.99999999999</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="18">
+        <f t="shared" ref="R4:R8" si="1">B4/C4</f>
+        <v>-4.6542553191489073E-3</v>
+      </c>
+      <c r="S4" s="6">
+        <f>(C4/C$8)*B$8</f>
+        <v>-230.08310067334699</v>
+      </c>
+      <c r="T4" s="6">
         <f t="shared" si="0"/>
-        <v>-230.08310067334699</v>
-      </c>
-      <c r="S4" s="6">
-        <f t="shared" si="1"/>
         <v>69.083100673347985</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>-207</v>
       </c>
-      <c r="U4" s="6">
-        <f t="shared" ref="U4:U8" si="2">ABS(T4-R4)</f>
+      <c r="V4" s="6">
+        <f t="shared" ref="V4:V8" si="2">ABS(U4-S4)</f>
         <v>23.083100673346991</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -22165,26 +22185,30 @@
       <c r="Q5" s="2">
         <v>3548.99999999999</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="18">
+        <f t="shared" si="1"/>
+        <v>-2.6980661260137088E-3</v>
+      </c>
+      <c r="S5" s="6">
+        <f>(C5/C$8)*B$8</f>
+        <v>-426.48382328789921</v>
+      </c>
+      <c r="T5" s="6">
         <f t="shared" si="0"/>
-        <v>-426.48382328789921</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="1"/>
         <v>253.48382328790021</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>-200</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="2"/>
         <v>226.48382328789921</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -22236,26 +22260,30 @@
       <c r="Q6" s="2">
         <v>1038.99999999999</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="18">
+        <f t="shared" si="1"/>
+        <v>-6.408389163996487E-3</v>
+      </c>
+      <c r="S6" s="6">
+        <f>(C6/C$8)*B$8</f>
+        <v>-137.00426999507337</v>
+      </c>
+      <c r="T6" s="6">
         <f t="shared" si="0"/>
-        <v>-137.00426999507337</v>
-      </c>
-      <c r="S6" s="6">
-        <f t="shared" si="1"/>
         <v>5.0042699950743668</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>-132</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <f t="shared" si="2"/>
         <v>5.004269995073372</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -22307,26 +22335,30 @@
       <c r="Q7" s="2">
         <v>2009.5</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="18">
+        <f t="shared" si="1"/>
+        <v>-3.794560142295976E-3</v>
+      </c>
+      <c r="S7" s="6">
         <f>(C7/C$8)*B$8</f>
         <v>-224.36627525045319</v>
       </c>
-      <c r="S7" s="6">
-        <f t="shared" si="1"/>
+      <c r="T7" s="6">
+        <f t="shared" si="0"/>
         <v>96.36627525045418</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>-87</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <f t="shared" si="2"/>
         <v>137.36627525045319</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="W7" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -22378,30 +22410,34 @@
       <c r="Q8" s="2">
         <v>628.99999999999898</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="18">
+        <f t="shared" si="1"/>
+        <v>-6.6513384792248782E-3</v>
+      </c>
+      <c r="S8" s="6">
         <v>-81</v>
       </c>
-      <c r="S8" s="6">
-        <f t="shared" si="1"/>
+      <c r="T8" s="6">
+        <f t="shared" si="0"/>
         <v>9.9475983006414026E-14</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>-90</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="W8" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E13" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -22455,7 +22491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1730000</v>
       </c>
@@ -22517,7 +22553,7 @@
         <v>594.99999999999955</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>4706000</v>
       </c>
@@ -22907,6 +22943,114 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T8">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -22918,8 +23062,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C8">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="O3:O8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22930,7 +23074,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -22942,115 +23098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I8">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L8">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N8">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P8">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S8">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="H3:H8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -23062,7 +23110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
+  <conditionalFormatting sqref="G3:G8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -23074,7 +23122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G8">
+  <conditionalFormatting sqref="K3:K8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -23086,7 +23134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8">
+  <conditionalFormatting sqref="Q3:Q8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -23098,7 +23146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q8">
+  <conditionalFormatting sqref="V3:V8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23110,7 +23158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U8">
+  <conditionalFormatting sqref="R3:R8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
